--- a/漢字（かんじ）/r.xlsx
+++ b/漢字（かんじ）/r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD339EB-4D58-411E-9268-B24636659B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA7987-9FF1-4F51-8344-F6FCB6AD19ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="1440" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ら" sheetId="1" r:id="rId1"/>
@@ -194,13 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立命館｜りつめいかん
-立案｜りつあん
-独立｜どくりつ
-独立行政｜どくりつぎょうせい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>れつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,11 +401,6 @@
 訓練所｜くんれんしょ
 練習｜れんしゅう
 練習問題｜れんしゅうもんだい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楽天｜らくてん
-楽園｜らくえん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,6 +549,22 @@
   <si>
     <t>脱落｜だつらく
 落後｜らくご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽天｜らくてん
+楽園｜らくえん
+気楽｜きらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立命館｜りつめいかん
+立案｜りつあん
+公立｜こうりつ
+市立｜しりつ
+私立｜しりつ
+独立｜どくりつ
+独立行政｜どくりつぎょうせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -931,16 +935,16 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -948,7 +952,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -959,7 +963,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -967,21 +971,21 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -994,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F73CA-0128-4AB3-A16D-5D95A6E4F005}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1009,22 +1013,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1032,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1044,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -1055,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -1064,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1072,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1092,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -1115,7 +1119,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -1124,7 +1128,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1135,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
@@ -1166,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1177,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1188,7 +1192,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1196,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1207,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1218,10 +1222,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1245,46 +1249,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="88.2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1308,13 +1312,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -1325,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1336,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1347,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.8" x14ac:dyDescent="0.45">
@@ -1358,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1388,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1399,21 +1403,21 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1437,13 +1441,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1454,7 +1458,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1462,10 +1466,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1473,10 +1477,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1487,7 +1491,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1498,18 +1502,18 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/r.xlsx
+++ b/漢字（かんじ）/r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA7987-9FF1-4F51-8344-F6FCB6AD19ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7A0C6-E8D9-48B6-8E9B-CA6BC4C36BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ら" sheetId="1" r:id="rId1"/>
@@ -98,14 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失礼｜しつれい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,12 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有利｜ゆうり
-不利｜ふり
-利率｜りりつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,12 +394,6 @@
 保留｜ほりゅう
 停留｜ていりゅう
 停留所｜ていりゅうじょ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷蔵｜れいぞう
-冷蔵庫｜れいぞうこ
-冷静｜れいせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,15 +457,6 @@
 流行語｜りゅうこうご
 流行語大賞｜りゅうこうごたいしょう
 流通経済｜りゅうつうけいざい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連休｜れんきゅう
-連続｜れんぞく
-連想｜れんそう
-連勝｜れんしょう
-連載｜れんさい
-連絡｜れんらく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,6 +536,39 @@
 私立｜しりつ
 独立｜どくりつ
 独立行政｜どくりつぎょうせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利｜ゆうり
+不利｜ふり
+利率｜りりつ
+利益｜りえき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷蔵｜れいぞう
+冷蔵庫｜れいぞうこ
+冷静｜れいせい
+冷凍｜れいとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失礼｜しつれい
+礼儀｜れいぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連休｜れんきゅう
+連日｜れんじつ
+連続｜れんぞく
+連想｜れんそう
+連勝｜れんしょう
+連載｜れんさい
+連絡｜れんらく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,13 +633,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,57 +936,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -998,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F73CA-0128-4AB3-A16D-5D95A6E4F005}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1013,33 +1014,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1048,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -1059,16 +1060,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1076,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1096,59 +1097,59 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1156,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1167,10 +1168,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1181,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1189,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1200,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1211,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1222,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1249,46 +1250,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="88.2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9603226E-197B-43D6-AB4C-4A42AE647990}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1312,16 +1313,16 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="108" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1340,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1351,74 +1352,79 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1441,79 +1447,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/r.xlsx
+++ b/漢字（かんじ）/r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7A0C6-E8D9-48B6-8E9B-CA6BC4C36BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6655AC-9B82-4F3F-A728-524D05A6C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ら" sheetId="1" r:id="rId1"/>
@@ -411,13 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条例｜じょうれい
-事例｜じれい
-実例｜じつれい
-比例｜ひれい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>離合｜りごう
 離婚｜りこん
 離合集散｜りごうしゅうさん
@@ -523,12 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>楽天｜らくてん
-楽園｜らくえん
-気楽｜きらく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立命館｜りつめいかん
 立案｜りつあん
 公立｜こうりつ
@@ -546,13 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冷蔵｜れいぞう
-冷蔵庫｜れいぞうこ
-冷静｜れいせい
-冷凍｜れいとう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>礼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,6 +549,29 @@
 連勝｜れんしょう
 連載｜れんさい
 連絡｜れんらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷蔵｜れいぞう
+冷蔵庫｜れいぞうこ
+冷静｜れいせい
+冷凍｜れいとう
+寒冷｜かんれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条例｜じょうれい
+事例｜じれい
+実例｜じつれい
+慣例｜かんれい
+比例｜ひれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽天｜らくてん
+楽園｜らくえん
+気楽｜きらく
+快楽｜かいらく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -953,7 +956,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -964,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -972,10 +975,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -986,7 +989,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1043,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1069,7 +1072,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1080,7 +1083,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -1097,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -1120,7 +1123,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -1129,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1278,7 +1281,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1302,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9603226E-197B-43D6-AB4C-4A42AE647990}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1352,10 +1355,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1371,10 +1374,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1388,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1497,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/r.xlsx
+++ b/漢字（かんじ）/r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6655AC-9B82-4F3F-A728-524D05A6C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920E2348-4093-4050-873C-9758AFB2F2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ら" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>り</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,11 +238,6 @@
   </si>
   <si>
     <t>りゃく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>略図｜りゃくず
-戦略｜せんりゃく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,13 +330,6 @@
     <t>容量｜ようりょう
 供給量｜きょうきゅうりょう
 貨幣供給量｜かへいきょうきゅうりょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要領｜ようりょう
-領収｜りょうしゅう
-領収書｜りょうしゅうしょ
-領収証｜りょうしゅうしょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -472,15 +460,6 @@
     <t>歴史｜れきし
 履歴｜りれき
 経歴｜けいれき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>労務｜ろうむ
-労力｜ろうりょく
-勤労｜きんろう
-苦労｜くろう
-労働｜ろうどう
-労働省｜ろうどうしょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -572,6 +551,68 @@
 楽園｜らくえん
 気楽｜きらく
 快楽｜かいらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略図｜りゃくず
+戦略｜せんりゃく
+侵略｜しんりゃく
+侵略者｜しんりゃくしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>労務｜ろうむ
+労力｜ろうりょく
+勤労｜きんろう
+過労｜かろう
+過労死｜かろうし
+苦労｜くろう
+労働｜ろうどう
+労働省｜ろうどうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展覧｜てんらん
+展覧会｜てんらんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">乱世｜らんせい
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紊乱｜ぶんらん
+混乱｜こんらん</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要領｜ようりょう
+領収｜りょうしゅう
+領収書｜りょうしゅうしょ
+領収証｜りょうしゅうしょう
+領域｜りょういき
+領域展開｜りょういきてんかい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -956,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -967,7 +1008,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -975,21 +1016,43 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1002,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F73CA-0128-4AB3-A16D-5D95A6E4F005}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1040,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1052,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -1063,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -1072,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -1083,27 +1146,27 @@
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -1112,7 +1175,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -1123,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -1132,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1143,7 +1206,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -1174,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -1185,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1196,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1204,21 +1267,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1226,10 +1289,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1264,13 +1327,13 @@
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="88.2" x14ac:dyDescent="0.45">
@@ -1281,7 +1344,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1333,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1344,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1355,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -1366,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1374,10 +1437,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1396,10 +1459,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1407,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1421,7 +1484,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1440,7 +1503,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.45">
@@ -1475,10 +1538,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1486,13 +1549,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" ht="144" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1500,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1516,13 +1579,13 @@
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
